--- a/data/pca/factorExposure/factorExposure_2011-04-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006827019579737167</v>
+        <v>0.0132110283342774</v>
       </c>
       <c r="C2">
-        <v>-4.65260584527815e-05</v>
+        <v>0.0006546096970285419</v>
       </c>
       <c r="D2">
-        <v>-0.04910489166799638</v>
+        <v>-0.00265747187500685</v>
       </c>
       <c r="E2">
-        <v>-0.0006746225863577412</v>
+        <v>-0.0084731838140562</v>
       </c>
       <c r="F2">
-        <v>-0.01220789055222758</v>
+        <v>-0.03545145355282588</v>
       </c>
       <c r="G2">
-        <v>-0.0078856728584514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.003092836599625812</v>
+      </c>
+      <c r="H2">
+        <v>-0.00424351903240548</v>
+      </c>
+      <c r="I2">
+        <v>-0.05369065789472718</v>
+      </c>
+      <c r="J2">
+        <v>-0.05840075352708359</v>
+      </c>
+      <c r="K2">
+        <v>-0.01712920181731859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1023689491493169</v>
+        <v>0.1133017640678638</v>
       </c>
       <c r="C4">
-        <v>-0.03323838387672019</v>
+        <v>0.06243051559645837</v>
       </c>
       <c r="D4">
-        <v>-0.04731929928261887</v>
+        <v>0.001494555845970009</v>
       </c>
       <c r="E4">
-        <v>0.06310760936209676</v>
+        <v>-0.01542154942614641</v>
       </c>
       <c r="F4">
-        <v>-0.03031175354067281</v>
+        <v>-0.02829888937006662</v>
       </c>
       <c r="G4">
-        <v>-0.02915860204704116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.1127112867465992</v>
+      </c>
+      <c r="H4">
+        <v>0.1043061199683447</v>
+      </c>
+      <c r="I4">
+        <v>-0.01960541421276426</v>
+      </c>
+      <c r="J4">
+        <v>0.04252522488143084</v>
+      </c>
+      <c r="K4">
+        <v>0.02387849793743566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1286182866535124</v>
+        <v>0.1267630305506555</v>
       </c>
       <c r="C6">
-        <v>-0.02602807309817106</v>
+        <v>0.03256813006308928</v>
       </c>
       <c r="D6">
-        <v>-0.03629717560598405</v>
+        <v>0.01095214087662274</v>
       </c>
       <c r="E6">
-        <v>-0.01439147614734415</v>
+        <v>-0.01558751246771057</v>
       </c>
       <c r="F6">
-        <v>0.1431570148428869</v>
+        <v>0.009012086353646146</v>
       </c>
       <c r="G6">
-        <v>0.1006254425956138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.05694515013990403</v>
+      </c>
+      <c r="H6">
+        <v>0.0812301712689409</v>
+      </c>
+      <c r="I6">
+        <v>0.1914717216643868</v>
+      </c>
+      <c r="J6">
+        <v>0.357762554193506</v>
+      </c>
+      <c r="K6">
+        <v>-0.1815472840119841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.09045224664910785</v>
+        <v>0.07518435688682686</v>
       </c>
       <c r="C7">
-        <v>-0.04588042977347654</v>
+        <v>0.06588666392071583</v>
       </c>
       <c r="D7">
-        <v>-0.04314376372664023</v>
+        <v>0.02691973111253506</v>
       </c>
       <c r="E7">
-        <v>0.0296183336239183</v>
+        <v>-0.02079412043174471</v>
       </c>
       <c r="F7">
-        <v>0.02465137448101076</v>
+        <v>-0.05314673602563835</v>
       </c>
       <c r="G7">
-        <v>-0.03484423890881404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03697188394212952</v>
+      </c>
+      <c r="H7">
+        <v>0.02592713499912082</v>
+      </c>
+      <c r="I7">
+        <v>0.02097567237724871</v>
+      </c>
+      <c r="J7">
+        <v>-0.02248447626186212</v>
+      </c>
+      <c r="K7">
+        <v>0.09934775087396697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04514554882848247</v>
+        <v>0.05324645433359595</v>
       </c>
       <c r="C8">
-        <v>0.02088786184808349</v>
+        <v>0.01572914019714224</v>
       </c>
       <c r="D8">
-        <v>-0.09012826627315149</v>
+        <v>0.01293757881815999</v>
       </c>
       <c r="E8">
-        <v>0.08222931076680201</v>
+        <v>-0.001388327286417939</v>
       </c>
       <c r="F8">
-        <v>-0.03018650414573677</v>
+        <v>-0.0201702590188658</v>
       </c>
       <c r="G8">
-        <v>-0.1219545728856017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.129189802376237</v>
+      </c>
+      <c r="H8">
+        <v>0.07301876825590069</v>
+      </c>
+      <c r="I8">
+        <v>-0.02537651895127212</v>
+      </c>
+      <c r="J8">
+        <v>0.03120806395041695</v>
+      </c>
+      <c r="K8">
+        <v>0.0199552220076438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09192751752425948</v>
+        <v>0.08534568755170061</v>
       </c>
       <c r="C9">
-        <v>-0.04089871037846286</v>
+        <v>0.05368340258179431</v>
       </c>
       <c r="D9">
-        <v>-0.03904667327151307</v>
+        <v>0.007524739555379905</v>
       </c>
       <c r="E9">
-        <v>0.0450631978580508</v>
+        <v>0.0003129645097111307</v>
       </c>
       <c r="F9">
-        <v>-0.01724111693592977</v>
+        <v>-0.0258102848156687</v>
       </c>
       <c r="G9">
-        <v>-0.06803019860335155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.09885401186105991</v>
+      </c>
+      <c r="H9">
+        <v>0.09504830027787999</v>
+      </c>
+      <c r="I9">
+        <v>0.002501413074940512</v>
+      </c>
+      <c r="J9">
+        <v>0.01138811807122498</v>
+      </c>
+      <c r="K9">
+        <v>-0.007207667517377575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03910400215074686</v>
+        <v>0.09658171882109826</v>
       </c>
       <c r="C10">
-        <v>0.1555178814544503</v>
+        <v>-0.1638996100888444</v>
       </c>
       <c r="D10">
-        <v>-0.0922236401042151</v>
+        <v>-0.04489636074803828</v>
       </c>
       <c r="E10">
-        <v>0.02545028096217643</v>
+        <v>-0.03307455381346981</v>
       </c>
       <c r="F10">
-        <v>0.0378103856968865</v>
+        <v>-0.03940440657226367</v>
       </c>
       <c r="G10">
-        <v>-0.01575449553526625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.008131997653360146</v>
+      </c>
+      <c r="H10">
+        <v>-0.009205948159043935</v>
+      </c>
+      <c r="I10">
+        <v>0.03539411960807039</v>
+      </c>
+      <c r="J10">
+        <v>0.02952598532825505</v>
+      </c>
+      <c r="K10">
+        <v>0.05050777918833663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07588563021872584</v>
+        <v>0.07640979948254077</v>
       </c>
       <c r="C11">
-        <v>-0.06322057451448526</v>
+        <v>0.0660684028638735</v>
       </c>
       <c r="D11">
-        <v>-0.006631051380360947</v>
+        <v>0.032468979696458</v>
       </c>
       <c r="E11">
-        <v>-0.0003082904864864732</v>
+        <v>0.0287941167182906</v>
       </c>
       <c r="F11">
-        <v>-0.02059005289546256</v>
+        <v>-0.02510550418601506</v>
       </c>
       <c r="G11">
-        <v>-0.1425682989060718</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.1117368393823452</v>
+      </c>
+      <c r="H11">
+        <v>0.07069736303604103</v>
+      </c>
+      <c r="I11">
+        <v>-0.01015087209143127</v>
+      </c>
+      <c r="J11">
+        <v>-0.1138204819098359</v>
+      </c>
+      <c r="K11">
+        <v>-0.03653612006347937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07193999496220176</v>
+        <v>0.07247211929977303</v>
       </c>
       <c r="C12">
-        <v>-0.04108299724954399</v>
+        <v>0.05685939961197571</v>
       </c>
       <c r="D12">
-        <v>-0.0007240964891404849</v>
+        <v>0.03564646646976659</v>
       </c>
       <c r="E12">
-        <v>0.03673225866679497</v>
+        <v>0.03948482105545833</v>
       </c>
       <c r="F12">
-        <v>-0.004797218802101726</v>
+        <v>-0.03324689500823061</v>
       </c>
       <c r="G12">
-        <v>-0.1355350019254409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.1289459052228341</v>
+      </c>
+      <c r="H12">
+        <v>0.05955465543252018</v>
+      </c>
+      <c r="I12">
+        <v>0.01074883742119575</v>
+      </c>
+      <c r="J12">
+        <v>-0.1004060788811916</v>
+      </c>
+      <c r="K12">
+        <v>-0.0257017653929539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.06388446742339103</v>
+        <v>0.04116021746996088</v>
       </c>
       <c r="C13">
-        <v>-0.009191221452921833</v>
+        <v>0.0264500746954691</v>
       </c>
       <c r="D13">
-        <v>-0.01111190774265887</v>
+        <v>0.01231782629309145</v>
       </c>
       <c r="E13">
-        <v>0.02570889967916744</v>
+        <v>-0.01796200344522778</v>
       </c>
       <c r="F13">
-        <v>-0.03801621519431601</v>
+        <v>-0.01440145067172668</v>
       </c>
       <c r="G13">
-        <v>-0.06522553632689479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05635795938575511</v>
+      </c>
+      <c r="H13">
+        <v>0.03110882138691301</v>
+      </c>
+      <c r="I13">
+        <v>0.03182903773769958</v>
+      </c>
+      <c r="J13">
+        <v>0.03624035272587341</v>
+      </c>
+      <c r="K13">
+        <v>0.04332501462155975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.0535959047634231</v>
+        <v>0.04430286116315151</v>
       </c>
       <c r="C14">
-        <v>-0.004674605442946918</v>
+        <v>0.0220237628532144</v>
       </c>
       <c r="D14">
-        <v>-0.03581216049252361</v>
+        <v>0.0003825914685054664</v>
       </c>
       <c r="E14">
-        <v>0.02616865469622727</v>
+        <v>0.01277946314242697</v>
       </c>
       <c r="F14">
-        <v>-0.005112319744156281</v>
+        <v>-0.01215664694410466</v>
       </c>
       <c r="G14">
-        <v>-0.07043461080251172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.06217292853670356</v>
+      </c>
+      <c r="H14">
+        <v>0.02516300625161553</v>
+      </c>
+      <c r="I14">
+        <v>-0.0165390922054361</v>
+      </c>
+      <c r="J14">
+        <v>0.04540426762335043</v>
+      </c>
+      <c r="K14">
+        <v>0.03062390699104763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03616041599259</v>
+        <v>0.02355365759604619</v>
       </c>
       <c r="C15">
-        <v>0.009261529328336564</v>
+        <v>0.008891421219870906</v>
       </c>
       <c r="D15">
-        <v>-0.01079446877069161</v>
+        <v>0.001782681843663391</v>
       </c>
       <c r="E15">
-        <v>0.007553851905328163</v>
+        <v>-0.03755112220895492</v>
       </c>
       <c r="F15">
-        <v>-0.01046963315140838</v>
+        <v>0.00427650695879642</v>
       </c>
       <c r="G15">
-        <v>-0.03468763939019751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01557139988125154</v>
+      </c>
+      <c r="H15">
+        <v>0.01908172493086784</v>
+      </c>
+      <c r="I15">
+        <v>0.0183709520440865</v>
+      </c>
+      <c r="J15">
+        <v>0.05157212713716387</v>
+      </c>
+      <c r="K15">
+        <v>0.03932487373171308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.07917754293422337</v>
+        <v>0.08039067486060757</v>
       </c>
       <c r="C16">
-        <v>-0.07230532749955926</v>
+        <v>0.06650562452366643</v>
       </c>
       <c r="D16">
-        <v>-0.01606977520642069</v>
+        <v>0.04497262995380569</v>
       </c>
       <c r="E16">
-        <v>0.03672411385417789</v>
+        <v>0.02536934845937056</v>
       </c>
       <c r="F16">
-        <v>-0.03818428541117685</v>
+        <v>-0.03032808413514726</v>
       </c>
       <c r="G16">
-        <v>-0.1061661378444396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.1310100612028274</v>
+      </c>
+      <c r="H16">
+        <v>0.05535761208209136</v>
+      </c>
+      <c r="I16">
+        <v>-0.0100029976597951</v>
+      </c>
+      <c r="J16">
+        <v>-0.1182626268261758</v>
+      </c>
+      <c r="K16">
+        <v>-0.01570229957830525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05055741480762137</v>
+        <v>0.05071297654141309</v>
       </c>
       <c r="C20">
-        <v>-0.02052153172986331</v>
+        <v>0.03897684571746049</v>
       </c>
       <c r="D20">
-        <v>-0.01738340250368548</v>
+        <v>-0.01432974751034799</v>
       </c>
       <c r="E20">
-        <v>0.02486827104436619</v>
+        <v>-0.008716026356375972</v>
       </c>
       <c r="F20">
-        <v>-0.01122256203985232</v>
+        <v>-0.01350166063308966</v>
       </c>
       <c r="G20">
-        <v>-0.1033223839846904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.07064408274951944</v>
+      </c>
+      <c r="H20">
+        <v>0.021817718099805</v>
+      </c>
+      <c r="I20">
+        <v>0.007092983391319582</v>
+      </c>
+      <c r="J20">
+        <v>0.01961693180176488</v>
+      </c>
+      <c r="K20">
+        <v>0.05710839732885482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02630683674907563</v>
+        <v>0.02765558340710501</v>
       </c>
       <c r="C21">
-        <v>-0.03613766166478891</v>
+        <v>0.02127004701277333</v>
       </c>
       <c r="D21">
-        <v>0.001517756651877378</v>
+        <v>-0.02900274404201167</v>
       </c>
       <c r="E21">
-        <v>0.01150614940925852</v>
+        <v>0.002969517120034328</v>
       </c>
       <c r="F21">
-        <v>0.09041423312598985</v>
+        <v>0.01382793112220252</v>
       </c>
       <c r="G21">
-        <v>0.05020086462695741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.07525665012565667</v>
+      </c>
+      <c r="H21">
+        <v>0.04721490155121881</v>
+      </c>
+      <c r="I21">
+        <v>0.08906470102634892</v>
+      </c>
+      <c r="J21">
+        <v>0.02149671480918652</v>
+      </c>
+      <c r="K21">
+        <v>0.1064830467317451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.0453751489656072</v>
+        <v>0.03803240539817261</v>
       </c>
       <c r="C22">
-        <v>0.0003686093706638177</v>
+        <v>0.01805153120980686</v>
       </c>
       <c r="D22">
-        <v>-0.002923322764218867</v>
+        <v>0.08124828411770861</v>
       </c>
       <c r="E22">
-        <v>0.5544009221941339</v>
+        <v>-0.6458081487446672</v>
       </c>
       <c r="F22">
-        <v>-0.08071170310110128</v>
+        <v>0.02705956967799234</v>
       </c>
       <c r="G22">
-        <v>0.3252377441936509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.05036026952811481</v>
+      </c>
+      <c r="H22">
+        <v>-0.1688610359713952</v>
+      </c>
+      <c r="I22">
+        <v>0.02178557127400839</v>
+      </c>
+      <c r="J22">
+        <v>-0.08200599645439725</v>
+      </c>
+      <c r="K22">
+        <v>-0.05674754174389744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04541065321135276</v>
+        <v>0.03831233186228272</v>
       </c>
       <c r="C23">
-        <v>-0.0002713765740345914</v>
+        <v>0.01852804899658866</v>
       </c>
       <c r="D23">
-        <v>-0.004175332184461897</v>
+        <v>0.08237653770279728</v>
       </c>
       <c r="E23">
-        <v>0.5539703650592653</v>
+        <v>-0.6481758370483799</v>
       </c>
       <c r="F23">
-        <v>-0.08153708369101124</v>
+        <v>0.02664967913736546</v>
       </c>
       <c r="G23">
-        <v>0.3267665331476283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.05296737559279522</v>
+      </c>
+      <c r="H23">
+        <v>-0.1675496773357336</v>
+      </c>
+      <c r="I23">
+        <v>0.02052664705293467</v>
+      </c>
+      <c r="J23">
+        <v>-0.07924582205884492</v>
+      </c>
+      <c r="K23">
+        <v>-0.05947035839946292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08612096255075218</v>
+        <v>0.08358189021596013</v>
       </c>
       <c r="C24">
-        <v>-0.04840800491559177</v>
+        <v>0.06055501514786301</v>
       </c>
       <c r="D24">
-        <v>-0.02015624957228995</v>
+        <v>0.02092695530479554</v>
       </c>
       <c r="E24">
-        <v>0.04039728289137116</v>
+        <v>0.02158903757908597</v>
       </c>
       <c r="F24">
-        <v>-0.009845038714581431</v>
+        <v>-0.02067034036703551</v>
       </c>
       <c r="G24">
-        <v>-0.1083630667154808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.1256664636532156</v>
+      </c>
+      <c r="H24">
+        <v>0.05685975409607561</v>
+      </c>
+      <c r="I24">
+        <v>-0.005870473880034746</v>
+      </c>
+      <c r="J24">
+        <v>-0.1201486030542107</v>
+      </c>
+      <c r="K24">
+        <v>-0.04655258392403324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07558976036938483</v>
+        <v>0.0837020862017786</v>
       </c>
       <c r="C25">
-        <v>-0.02087790553893944</v>
+        <v>0.04424487525570232</v>
       </c>
       <c r="D25">
-        <v>-0.0248660983469449</v>
+        <v>0.02592968021459324</v>
       </c>
       <c r="E25">
-        <v>0.02854990634535099</v>
+        <v>0.04385813282409717</v>
       </c>
       <c r="F25">
-        <v>-0.003177714574912333</v>
+        <v>-0.03594922166617762</v>
       </c>
       <c r="G25">
-        <v>-0.1047749639664182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.1269113715511996</v>
+      </c>
+      <c r="H25">
+        <v>0.04680078571994526</v>
+      </c>
+      <c r="I25">
+        <v>-0.01411806838444262</v>
+      </c>
+      <c r="J25">
+        <v>-0.09663417643846275</v>
+      </c>
+      <c r="K25">
+        <v>-0.03020504494333456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.04978018630681414</v>
+        <v>0.04390950328119796</v>
       </c>
       <c r="C26">
-        <v>-0.02432491247236444</v>
+        <v>0.009457484648390786</v>
       </c>
       <c r="D26">
-        <v>-0.03248175700206653</v>
+        <v>-0.0113716629675812</v>
       </c>
       <c r="E26">
-        <v>0.01585450918991519</v>
+        <v>-0.01495991439934239</v>
       </c>
       <c r="F26">
-        <v>-0.02532050549318091</v>
+        <v>0.009778357574317222</v>
       </c>
       <c r="G26">
-        <v>-0.0615337175348338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0642056557442531</v>
+      </c>
+      <c r="H26">
+        <v>0.004417623892604015</v>
+      </c>
+      <c r="I26">
+        <v>-0.001686092333000738</v>
+      </c>
+      <c r="J26">
+        <v>0.02978293460517393</v>
+      </c>
+      <c r="K26">
+        <v>0.01840286329726823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06340430799642038</v>
+        <v>0.120306417536064</v>
       </c>
       <c r="C28">
-        <v>0.2934312148731568</v>
+        <v>-0.3034759170674977</v>
       </c>
       <c r="D28">
-        <v>-0.06174471039996203</v>
+        <v>-9.47808528263264e-06</v>
       </c>
       <c r="E28">
-        <v>-0.0357002076587389</v>
+        <v>0.001213737013690505</v>
       </c>
       <c r="F28">
-        <v>0.04845412336907969</v>
+        <v>-0.00510762704587469</v>
       </c>
       <c r="G28">
-        <v>0.02020416200098829</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01514549280906173</v>
+      </c>
+      <c r="H28">
+        <v>0.0143190628521047</v>
+      </c>
+      <c r="I28">
+        <v>0.0139986770155118</v>
+      </c>
+      <c r="J28">
+        <v>-0.005076679321870317</v>
+      </c>
+      <c r="K28">
+        <v>0.02164399351116775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05704317115225192</v>
+        <v>0.04140541155276829</v>
       </c>
       <c r="C29">
-        <v>-0.008454503686037113</v>
+        <v>0.01970098854537654</v>
       </c>
       <c r="D29">
-        <v>-0.02905223518868487</v>
+        <v>0.01168647447562053</v>
       </c>
       <c r="E29">
-        <v>0.04403461171298498</v>
+        <v>0.007131275038555743</v>
       </c>
       <c r="F29">
-        <v>-0.03547203406923857</v>
+        <v>-0.03567198230114174</v>
       </c>
       <c r="G29">
-        <v>-0.04873953390178214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1036813841063324</v>
+      </c>
+      <c r="H29">
+        <v>-0.006768892110040821</v>
+      </c>
+      <c r="I29">
+        <v>0.005574265186223329</v>
+      </c>
+      <c r="J29">
+        <v>0.04071177768409881</v>
+      </c>
+      <c r="K29">
+        <v>0.0471822243609846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1171260927538571</v>
+        <v>0.1050056950654911</v>
       </c>
       <c r="C30">
-        <v>0.01598959999540144</v>
+        <v>0.04625901156339725</v>
       </c>
       <c r="D30">
-        <v>-0.07418216529684207</v>
+        <v>0.05626534210648541</v>
       </c>
       <c r="E30">
-        <v>0.201873161789445</v>
+        <v>0.01419833199833366</v>
       </c>
       <c r="F30">
-        <v>0.05339040728011082</v>
+        <v>-4.258464345259613e-05</v>
       </c>
       <c r="G30">
-        <v>-0.1373907768004172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.2138607446676838</v>
+      </c>
+      <c r="H30">
+        <v>0.05418557473783714</v>
+      </c>
+      <c r="I30">
+        <v>0.1566687679988315</v>
+      </c>
+      <c r="J30">
+        <v>-0.08726828342194765</v>
+      </c>
+      <c r="K30">
+        <v>-0.06646212264143715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05654559407413284</v>
+        <v>0.03900054762425915</v>
       </c>
       <c r="C31">
-        <v>-0.01776768447486218</v>
+        <v>0.03766686402098533</v>
       </c>
       <c r="D31">
-        <v>0.008996838169013272</v>
+        <v>0.005849906446414067</v>
       </c>
       <c r="E31">
-        <v>0.007804676432584883</v>
+        <v>-0.0006560622318815176</v>
       </c>
       <c r="F31">
-        <v>-0.02538337719069665</v>
+        <v>-0.005484185347490656</v>
       </c>
       <c r="G31">
-        <v>-0.007490309945221475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0305124190856004</v>
+      </c>
+      <c r="H31">
+        <v>0.001290363995896983</v>
+      </c>
+      <c r="I31">
+        <v>-0.03374719622183588</v>
+      </c>
+      <c r="J31">
+        <v>0.02220954367542394</v>
+      </c>
+      <c r="K31">
+        <v>-0.002873982328614331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03870991662772431</v>
+        <v>0.05360696168765298</v>
       </c>
       <c r="C32">
-        <v>0.01795412926933651</v>
+        <v>0.0009421602570709334</v>
       </c>
       <c r="D32">
-        <v>-0.004110447081022185</v>
+        <v>-0.01355487407425517</v>
       </c>
       <c r="E32">
-        <v>0.08437296202363602</v>
+        <v>0.04621174264729246</v>
       </c>
       <c r="F32">
-        <v>-0.07812898934908767</v>
+        <v>0.04261788868994565</v>
       </c>
       <c r="G32">
-        <v>-0.05157697442031602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04198054292362564</v>
+      </c>
+      <c r="H32">
+        <v>0.03934281918210041</v>
+      </c>
+      <c r="I32">
+        <v>-0.02957190761129559</v>
+      </c>
+      <c r="J32">
+        <v>0.0264510847791306</v>
+      </c>
+      <c r="K32">
+        <v>0.01619903564197823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1125257334234294</v>
+        <v>0.09665624736124222</v>
       </c>
       <c r="C33">
-        <v>-0.01859912183455116</v>
+        <v>0.04788768813884865</v>
       </c>
       <c r="D33">
-        <v>0.005639523310284708</v>
+        <v>0.05807810966349832</v>
       </c>
       <c r="E33">
-        <v>0.008482335291226694</v>
+        <v>0.02889861427324187</v>
       </c>
       <c r="F33">
-        <v>-0.0538735017341341</v>
+        <v>-0.02818308774148653</v>
       </c>
       <c r="G33">
-        <v>-0.05525028447124908</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05549315589139971</v>
+      </c>
+      <c r="H33">
+        <v>0.03484410786357978</v>
+      </c>
+      <c r="I33">
+        <v>-0.01997225899479963</v>
+      </c>
+      <c r="J33">
+        <v>-0.01487911015241357</v>
+      </c>
+      <c r="K33">
+        <v>-0.02464132709876305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06576952866431106</v>
+        <v>0.06831175756068242</v>
       </c>
       <c r="C34">
-        <v>-0.05391686380280081</v>
+        <v>0.0494623579253692</v>
       </c>
       <c r="D34">
-        <v>-0.006510727213585477</v>
+        <v>0.02639246638350518</v>
       </c>
       <c r="E34">
-        <v>0.0210167189940983</v>
+        <v>0.02370117337342487</v>
       </c>
       <c r="F34">
-        <v>-0.01980366788556006</v>
+        <v>-0.0251837662696343</v>
       </c>
       <c r="G34">
-        <v>-0.08900337680754272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.1199596325126429</v>
+      </c>
+      <c r="H34">
+        <v>0.05267248255949674</v>
+      </c>
+      <c r="I34">
+        <v>-0.004421975529869109</v>
+      </c>
+      <c r="J34">
+        <v>-0.09026113156469752</v>
+      </c>
+      <c r="K34">
+        <v>0.005265626434007708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04322675804309779</v>
+        <v>0.02289267766613193</v>
       </c>
       <c r="C35">
-        <v>-0.008747331123430582</v>
+        <v>0.01515093906899137</v>
       </c>
       <c r="D35">
-        <v>0.01823156007924454</v>
+        <v>0.01255045937998664</v>
       </c>
       <c r="E35">
-        <v>0.006801506238964668</v>
+        <v>0.005948595550220388</v>
       </c>
       <c r="F35">
-        <v>0.03525415314946477</v>
+        <v>-0.01036472264452546</v>
       </c>
       <c r="G35">
-        <v>-0.04577515428719327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05608056543083457</v>
+      </c>
+      <c r="H35">
+        <v>-0.004781519241312024</v>
+      </c>
+      <c r="I35">
+        <v>0.02529891348329381</v>
+      </c>
+      <c r="J35">
+        <v>-0.01259648447602529</v>
+      </c>
+      <c r="K35">
+        <v>0.0609718503999687</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03624646212107208</v>
+        <v>0.02845440042070422</v>
       </c>
       <c r="C36">
-        <v>-0.002490953846342002</v>
+        <v>0.011116564727259</v>
       </c>
       <c r="D36">
-        <v>-0.02431180894753956</v>
+        <v>0.0008843083270277419</v>
       </c>
       <c r="E36">
-        <v>0.03386338096556857</v>
+        <v>-0.007682911708027435</v>
       </c>
       <c r="F36">
-        <v>-0.003273320001386833</v>
+        <v>-0.002877642186691748</v>
       </c>
       <c r="G36">
-        <v>-0.06287752894388608</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0740469957071561</v>
+      </c>
+      <c r="H36">
+        <v>0.02647363526602154</v>
+      </c>
+      <c r="I36">
+        <v>0.008279217354788199</v>
+      </c>
+      <c r="J36">
+        <v>0.02668743073645709</v>
+      </c>
+      <c r="K36">
+        <v>-0.008870544528303289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05113511452749691</v>
+        <v>0.02218007776293179</v>
       </c>
       <c r="C38">
-        <v>-0.01984003670078971</v>
+        <v>0.02835232446727618</v>
       </c>
       <c r="D38">
-        <v>9.599047021011457e-05</v>
+        <v>0.01257746685756112</v>
       </c>
       <c r="E38">
-        <v>0.01393260947794714</v>
+        <v>-0.01822563174088259</v>
       </c>
       <c r="F38">
-        <v>0.005068093575308585</v>
+        <v>-0.01537745388363119</v>
       </c>
       <c r="G38">
-        <v>-0.05029006854224819</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02585270152747123</v>
+      </c>
+      <c r="H38">
+        <v>-0.04624802184010796</v>
+      </c>
+      <c r="I38">
+        <v>0.02135497490340064</v>
+      </c>
+      <c r="J38">
+        <v>0.01463477410338071</v>
+      </c>
+      <c r="K38">
+        <v>-0.00540614660818202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1071878045177247</v>
+        <v>0.112951585874263</v>
       </c>
       <c r="C39">
-        <v>-0.04338913644301535</v>
+        <v>0.07750966634901965</v>
       </c>
       <c r="D39">
-        <v>-0.006153275993499674</v>
+        <v>0.05839289218831973</v>
       </c>
       <c r="E39">
-        <v>0.06977050083497542</v>
+        <v>0.1005991843720315</v>
       </c>
       <c r="F39">
-        <v>-0.01013335755471043</v>
+        <v>-0.04480619890247806</v>
       </c>
       <c r="G39">
-        <v>-0.1507874600300779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1595381676857914</v>
+      </c>
+      <c r="H39">
+        <v>0.02924051067829213</v>
+      </c>
+      <c r="I39">
+        <v>0.00674287552073471</v>
+      </c>
+      <c r="J39">
+        <v>-0.1795414241001071</v>
+      </c>
+      <c r="K39">
+        <v>-0.02258527909889288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05423742148755727</v>
+        <v>0.02266895044404883</v>
       </c>
       <c r="C40">
-        <v>-0.03350769162049502</v>
+        <v>0.05647344706275978</v>
       </c>
       <c r="D40">
-        <v>0.01789783052919848</v>
+        <v>0.002216568354535405</v>
       </c>
       <c r="E40">
-        <v>0.1082126375440323</v>
+        <v>-0.06469717556159589</v>
       </c>
       <c r="F40">
-        <v>0.01509122423390243</v>
+        <v>-0.001783486969845644</v>
       </c>
       <c r="G40">
-        <v>-0.2574415325714978</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1119227556834246</v>
+      </c>
+      <c r="H40">
+        <v>0.07178002509471459</v>
+      </c>
+      <c r="I40">
+        <v>0.08310683699637968</v>
+      </c>
+      <c r="J40">
+        <v>0.009961961474293445</v>
+      </c>
+      <c r="K40">
+        <v>0.01018407670853525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04810924384500471</v>
+        <v>0.03489464322411438</v>
       </c>
       <c r="C41">
-        <v>-0.03050817601453523</v>
+        <v>0.02705054266917355</v>
       </c>
       <c r="D41">
-        <v>-0.001162667556560245</v>
+        <v>-0.002239644822248792</v>
       </c>
       <c r="E41">
-        <v>-0.01058567248189172</v>
+        <v>0.01215289540944477</v>
       </c>
       <c r="F41">
-        <v>-0.02081228604561565</v>
+        <v>-0.01300776642088547</v>
       </c>
       <c r="G41">
-        <v>-0.0719136015059899</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02377506237677157</v>
+      </c>
+      <c r="H41">
+        <v>-4.403490541232219e-05</v>
+      </c>
+      <c r="I41">
+        <v>-0.002120919098100369</v>
+      </c>
+      <c r="J41">
+        <v>0.002936098064723388</v>
+      </c>
+      <c r="K41">
+        <v>0.01585615373284944</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07387106482585692</v>
+        <v>0.0500679022809578</v>
       </c>
       <c r="C43">
-        <v>-0.02583100143014926</v>
+        <v>0.0259724280098813</v>
       </c>
       <c r="D43">
-        <v>-0.0228948307999936</v>
+        <v>0.02134831817024377</v>
       </c>
       <c r="E43">
-        <v>0.02325344585840717</v>
+        <v>-0.004365821254048313</v>
       </c>
       <c r="F43">
-        <v>-0.01702388569865805</v>
+        <v>-0.01948208028292914</v>
       </c>
       <c r="G43">
-        <v>-0.01524650266546815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02862416134897024</v>
+      </c>
+      <c r="H43">
+        <v>-0.02197768966581347</v>
+      </c>
+      <c r="I43">
+        <v>-0.0002710699035973143</v>
+      </c>
+      <c r="J43">
+        <v>-0.001495953277568496</v>
+      </c>
+      <c r="K43">
+        <v>-0.01175023677008462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.06630435241551462</v>
+        <v>0.101701614527131</v>
       </c>
       <c r="C44">
-        <v>-0.02501616226953845</v>
+        <v>0.08155481373267079</v>
       </c>
       <c r="D44">
-        <v>-0.1057860129608424</v>
+        <v>0.05164350911184176</v>
       </c>
       <c r="E44">
-        <v>0.06889089472883293</v>
+        <v>-0.0927182533409892</v>
       </c>
       <c r="F44">
-        <v>-0.02706651759987065</v>
+        <v>-0.09476374004906553</v>
       </c>
       <c r="G44">
-        <v>-0.129991653114189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.259039156307996</v>
+      </c>
+      <c r="H44">
+        <v>0.05799171750209871</v>
+      </c>
+      <c r="I44">
+        <v>0.07009363170545224</v>
+      </c>
+      <c r="J44">
+        <v>0.07596461832305634</v>
+      </c>
+      <c r="K44">
+        <v>0.1570322752608865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04567341709023811</v>
+        <v>0.03026191524658348</v>
       </c>
       <c r="C46">
-        <v>-0.03762122776351125</v>
+        <v>0.0203262040523691</v>
       </c>
       <c r="D46">
-        <v>-0.02634159113353919</v>
+        <v>0.01597854392759232</v>
       </c>
       <c r="E46">
-        <v>0.05277547391830995</v>
+        <v>-0.03536404855400274</v>
       </c>
       <c r="F46">
-        <v>-0.008758140546767192</v>
+        <v>-0.03277795889293313</v>
       </c>
       <c r="G46">
-        <v>-0.04589825810559899</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.06207404807834652</v>
+      </c>
+      <c r="H46">
+        <v>-0.01302627833965752</v>
+      </c>
+      <c r="I46">
+        <v>0.01980835628152355</v>
+      </c>
+      <c r="J46">
+        <v>0.02071635534467162</v>
+      </c>
+      <c r="K46">
+        <v>0.06980041596655913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04806901440565042</v>
+        <v>0.04197148936358775</v>
       </c>
       <c r="C47">
-        <v>-0.0004615597032759818</v>
+        <v>0.01848580136014811</v>
       </c>
       <c r="D47">
-        <v>-0.01248785596024011</v>
+        <v>0.01191182129241902</v>
       </c>
       <c r="E47">
-        <v>0.06349381637188918</v>
+        <v>-0.007738820170909924</v>
       </c>
       <c r="F47">
-        <v>0.008611379051966944</v>
+        <v>-0.006620586809592054</v>
       </c>
       <c r="G47">
-        <v>0.001606064260174722</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.0445424442531945</v>
+      </c>
+      <c r="H47">
+        <v>0.007320216441319009</v>
+      </c>
+      <c r="I47">
+        <v>0.00884394233904503</v>
+      </c>
+      <c r="J47">
+        <v>0.04424756570476704</v>
+      </c>
+      <c r="K47">
+        <v>0.02833062918130038</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04354071459804561</v>
+        <v>0.04290885387691957</v>
       </c>
       <c r="C48">
-        <v>0.001490213598395768</v>
+        <v>0.009661825525528966</v>
       </c>
       <c r="D48">
-        <v>0.002005477438004003</v>
+        <v>0.002529852897993551</v>
       </c>
       <c r="E48">
-        <v>0.03611571051101155</v>
+        <v>-0.00292345713409798</v>
       </c>
       <c r="F48">
-        <v>-0.004481855589742499</v>
+        <v>-0.007468953675935252</v>
       </c>
       <c r="G48">
-        <v>-0.04694708511560038</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.06826839818499217</v>
+      </c>
+      <c r="H48">
+        <v>0.02742408144575586</v>
+      </c>
+      <c r="I48">
+        <v>0.02004536124339527</v>
+      </c>
+      <c r="J48">
+        <v>-0.005128405135354342</v>
+      </c>
+      <c r="K48">
+        <v>0.02083055868270627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2336534668163427</v>
+        <v>0.2287448056846277</v>
       </c>
       <c r="C49">
-        <v>-0.0938922026730331</v>
+        <v>0.05204964921555522</v>
       </c>
       <c r="D49">
-        <v>-0.0313521762945568</v>
+        <v>-0.07631664345015156</v>
       </c>
       <c r="E49">
-        <v>-0.09871557782708582</v>
+        <v>0.03975853374671737</v>
       </c>
       <c r="F49">
-        <v>0.1708741546215634</v>
+        <v>-0.03508563883092945</v>
       </c>
       <c r="G49">
-        <v>0.08950792398377655</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.2357097889343927</v>
+      </c>
+      <c r="H49">
+        <v>-0.04959528419639803</v>
+      </c>
+      <c r="I49">
+        <v>0.1724800466741416</v>
+      </c>
+      <c r="J49">
+        <v>-0.2365471225503588</v>
+      </c>
+      <c r="K49">
+        <v>-0.2035154860484293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05477569657310188</v>
+        <v>0.04404071562640063</v>
       </c>
       <c r="C50">
-        <v>-0.01513096215368156</v>
+        <v>0.0275248702450424</v>
       </c>
       <c r="D50">
-        <v>0.005505936144593986</v>
+        <v>-0.001485354847249908</v>
       </c>
       <c r="E50">
-        <v>0.03065661503855177</v>
+        <v>-0.0005733760594348371</v>
       </c>
       <c r="F50">
-        <v>-0.05135805688173806</v>
+        <v>0.002098856614591181</v>
       </c>
       <c r="G50">
-        <v>0.0006654629776954154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.05690367975563466</v>
+      </c>
+      <c r="H50">
+        <v>0.008123380966695175</v>
+      </c>
+      <c r="I50">
+        <v>-0.02298605740532077</v>
+      </c>
+      <c r="J50">
+        <v>0.02699508123041264</v>
+      </c>
+      <c r="K50">
+        <v>-0.02094560182844239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03603462096574078</v>
+        <v>0.02130695788492823</v>
       </c>
       <c r="C51">
-        <v>-0.01330452173729181</v>
+        <v>-0.001951680790183689</v>
       </c>
       <c r="D51">
-        <v>-0.01393668248553202</v>
+        <v>0.01096330179879646</v>
       </c>
       <c r="E51">
-        <v>-0.008024045643950936</v>
+        <v>-0.004815349671785013</v>
       </c>
       <c r="F51">
-        <v>0.001199614798255097</v>
+        <v>-0.02515816232861097</v>
       </c>
       <c r="G51">
-        <v>-0.004157654026776232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03123465309355337</v>
+      </c>
+      <c r="H51">
+        <v>0.00542587817363228</v>
+      </c>
+      <c r="I51">
+        <v>0.01456952623046524</v>
+      </c>
+      <c r="J51">
+        <v>-0.03429115186750815</v>
+      </c>
+      <c r="K51">
+        <v>-0.02513402534967292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.06839484326295116</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.03583456183330633</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.016942474434151</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02254530670264726</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.002377740761385097</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.04620396032468164</v>
+      </c>
+      <c r="H52">
+        <v>-0.07467151324669313</v>
+      </c>
+      <c r="I52">
+        <v>-0.1109607793492641</v>
+      </c>
+      <c r="J52">
+        <v>0.01483529303741304</v>
+      </c>
+      <c r="K52">
+        <v>0.01284115190171856</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1594222768717648</v>
+        <v>0.162144944793061</v>
       </c>
       <c r="C53">
-        <v>0.001609765463676962</v>
+        <v>0.03527251067901641</v>
       </c>
       <c r="D53">
-        <v>-0.01070893297349177</v>
+        <v>-0.007361455066910562</v>
       </c>
       <c r="E53">
-        <v>-0.04933499130914353</v>
+        <v>0.005697372190038686</v>
       </c>
       <c r="F53">
-        <v>-0.2416628109234604</v>
+        <v>-0.02246003131788967</v>
       </c>
       <c r="G53">
-        <v>0.06666071452830559</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02334299620577366</v>
+      </c>
+      <c r="H53">
+        <v>-0.163035754954652</v>
+      </c>
+      <c r="I53">
+        <v>-0.2462937583205956</v>
+      </c>
+      <c r="J53">
+        <v>0.100515449931727</v>
+      </c>
+      <c r="K53">
+        <v>-0.04849178576531653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05442084352966417</v>
+        <v>0.0549796353921287</v>
       </c>
       <c r="C54">
-        <v>-0.005336738727579716</v>
+        <v>0.03525953405612689</v>
       </c>
       <c r="D54">
-        <v>-0.03043202050806403</v>
+        <v>-0.00041207986547707</v>
       </c>
       <c r="E54">
-        <v>0.04233887680118778</v>
+        <v>-0.02602761271782279</v>
       </c>
       <c r="F54">
-        <v>-0.01484345342786238</v>
+        <v>-0.01323376606494125</v>
       </c>
       <c r="G54">
-        <v>-0.07508373920684171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.1091910476876442</v>
+      </c>
+      <c r="H54">
+        <v>0.08237803719307639</v>
+      </c>
+      <c r="I54">
+        <v>0.003103321624184964</v>
+      </c>
+      <c r="J54">
+        <v>0.1006668061112002</v>
+      </c>
+      <c r="K54">
+        <v>0.09136175709949837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09561733644421248</v>
+        <v>0.0890699605010376</v>
       </c>
       <c r="C55">
-        <v>-0.01067459474564956</v>
+        <v>0.03013666568815587</v>
       </c>
       <c r="D55">
-        <v>-0.01760897693840387</v>
+        <v>0.0446859292455516</v>
       </c>
       <c r="E55">
-        <v>0.00416178568373415</v>
+        <v>0.0223858266745105</v>
       </c>
       <c r="F55">
-        <v>-0.1825875820541087</v>
+        <v>-0.0440746622649044</v>
       </c>
       <c r="G55">
-        <v>0.01438536960395321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.001788707470239926</v>
+      </c>
+      <c r="H55">
+        <v>-0.0554362575052559</v>
+      </c>
+      <c r="I55">
+        <v>-0.1607063916443767</v>
+      </c>
+      <c r="J55">
+        <v>0.0461429967130276</v>
+      </c>
+      <c r="K55">
+        <v>-0.01233429165101376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1622453552294297</v>
+        <v>0.1588759944971015</v>
       </c>
       <c r="C56">
-        <v>0.006176024641140181</v>
+        <v>0.04612613697326338</v>
       </c>
       <c r="D56">
-        <v>-0.006961464916940335</v>
+        <v>0.01328673608331933</v>
       </c>
       <c r="E56">
-        <v>-0.05155377389283464</v>
+        <v>0.02413953142169489</v>
       </c>
       <c r="F56">
-        <v>-0.2356936845232812</v>
+        <v>-0.05281262114998744</v>
       </c>
       <c r="G56">
-        <v>0.07095866233653915</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01527171657011517</v>
+      </c>
+      <c r="H56">
+        <v>-0.1302495666617802</v>
+      </c>
+      <c r="I56">
+        <v>-0.2031590266781321</v>
+      </c>
+      <c r="J56">
+        <v>0.06582910654450945</v>
+      </c>
+      <c r="K56">
+        <v>-0.05315334183795891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03644754716860003</v>
+        <v>0.04444487774787954</v>
       </c>
       <c r="C58">
-        <v>-0.05281093733853209</v>
+        <v>0.04072805875989141</v>
       </c>
       <c r="D58">
-        <v>0.02233613207218132</v>
+        <v>0.02127040656359733</v>
       </c>
       <c r="E58">
-        <v>0.2812662498840909</v>
+        <v>-0.08090443366087215</v>
       </c>
       <c r="F58">
-        <v>0.4576770383548691</v>
+        <v>0.01968826438102875</v>
       </c>
       <c r="G58">
-        <v>-0.09624281377657805</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.09482936872651128</v>
+      </c>
+      <c r="H58">
+        <v>-0.04941747440051718</v>
+      </c>
+      <c r="I58">
+        <v>0.2017189213161399</v>
+      </c>
+      <c r="J58">
+        <v>-0.07411462606796368</v>
+      </c>
+      <c r="K58">
+        <v>0.1924267470169365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1617696047817203</v>
+        <v>0.1917513387428169</v>
       </c>
       <c r="C59">
-        <v>0.3881278994457193</v>
+        <v>-0.3033002872004494</v>
       </c>
       <c r="D59">
-        <v>-0.08579487828567754</v>
+        <v>0.01155229653443489</v>
       </c>
       <c r="E59">
-        <v>-0.07521522009380149</v>
+        <v>0.03065786044374658</v>
       </c>
       <c r="F59">
-        <v>-0.04969801431643283</v>
+        <v>-0.03864144837845993</v>
       </c>
       <c r="G59">
-        <v>-0.03108408287721391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01299017589259547</v>
+      </c>
+      <c r="H59">
+        <v>0.06814423464861229</v>
+      </c>
+      <c r="I59">
+        <v>-0.08306836239503364</v>
+      </c>
+      <c r="J59">
+        <v>0.002101006277582231</v>
+      </c>
+      <c r="K59">
+        <v>0.006269788866433704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2640094998355211</v>
+        <v>0.2511236471934558</v>
       </c>
       <c r="C60">
-        <v>-0.07048745447368558</v>
+        <v>0.1077479744824267</v>
       </c>
       <c r="D60">
-        <v>-0.06980827176569092</v>
+        <v>-0.0882822899095899</v>
       </c>
       <c r="E60">
-        <v>-0.08601834847442245</v>
+        <v>0.02765795470549515</v>
       </c>
       <c r="F60">
-        <v>0.082110401658406</v>
+        <v>-0.06105359330814157</v>
       </c>
       <c r="G60">
-        <v>0.1953010291021231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1236274945426456</v>
+      </c>
+      <c r="H60">
+        <v>-0.05001026522604814</v>
+      </c>
+      <c r="I60">
+        <v>0.1088615435437938</v>
+      </c>
+      <c r="J60">
+        <v>0.002581759766929007</v>
+      </c>
+      <c r="K60">
+        <v>-0.230386823469965</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09262959543515221</v>
+        <v>0.1046175243804606</v>
       </c>
       <c r="C61">
-        <v>-0.02075075207173013</v>
+        <v>0.04386449969317207</v>
       </c>
       <c r="D61">
-        <v>-0.00548424255064924</v>
+        <v>0.03417309264115333</v>
       </c>
       <c r="E61">
-        <v>0.02266810834285694</v>
+        <v>0.05848469194317662</v>
       </c>
       <c r="F61">
-        <v>-0.0203205339904569</v>
+        <v>-0.05384526302881927</v>
       </c>
       <c r="G61">
-        <v>-0.06055072458659964</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1449968131965244</v>
+      </c>
+      <c r="H61">
+        <v>0.02362307169028804</v>
+      </c>
+      <c r="I61">
+        <v>-0.04796390451856918</v>
+      </c>
+      <c r="J61">
+        <v>-0.1034621182087006</v>
+      </c>
+      <c r="K61">
+        <v>0.008201661362822374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1466266312669602</v>
+        <v>0.1509427186939346</v>
       </c>
       <c r="C62">
-        <v>-0.02576996769447777</v>
+        <v>0.04770105361598811</v>
       </c>
       <c r="D62">
-        <v>0.03568299777919001</v>
+        <v>0.01353517745267763</v>
       </c>
       <c r="E62">
-        <v>-0.1168879413177882</v>
+        <v>0.03052086164200861</v>
       </c>
       <c r="F62">
-        <v>-0.2435236239715811</v>
+        <v>-0.02346302215939935</v>
       </c>
       <c r="G62">
-        <v>0.02671579660723356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01435325104465541</v>
+      </c>
+      <c r="H62">
+        <v>-0.1330310818643166</v>
+      </c>
+      <c r="I62">
+        <v>-0.2037384645728385</v>
+      </c>
+      <c r="J62">
+        <v>0.09477943603348467</v>
+      </c>
+      <c r="K62">
+        <v>-0.03289238987312293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04245320711843007</v>
+        <v>0.042740248895369</v>
       </c>
       <c r="C63">
-        <v>-0.01242615379051543</v>
+        <v>0.01270553727744181</v>
       </c>
       <c r="D63">
-        <v>0.005796499051605185</v>
+        <v>0.01955488615479851</v>
       </c>
       <c r="E63">
-        <v>0.007841795614776425</v>
+        <v>0.01184005358676961</v>
       </c>
       <c r="F63">
-        <v>-0.01597717521675531</v>
+        <v>0.01513173616511889</v>
       </c>
       <c r="G63">
-        <v>-0.04015103438658627</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.05982448021662469</v>
+      </c>
+      <c r="H63">
+        <v>0.02968399289865521</v>
+      </c>
+      <c r="I63">
+        <v>0.01631869378604471</v>
+      </c>
+      <c r="J63">
+        <v>-0.001703098128413051</v>
+      </c>
+      <c r="K63">
+        <v>-0.009461926512559352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1038655937570762</v>
+        <v>0.09878789438053026</v>
       </c>
       <c r="C64">
-        <v>-0.01381831569854291</v>
+        <v>0.03873201884958506</v>
       </c>
       <c r="D64">
-        <v>-0.03911158012319604</v>
+        <v>-0.01039722026220162</v>
       </c>
       <c r="E64">
-        <v>0.035023675074036</v>
+        <v>-0.0125109961941381</v>
       </c>
       <c r="F64">
-        <v>0.03006385298452873</v>
+        <v>-0.04955116256394522</v>
       </c>
       <c r="G64">
-        <v>-0.05560970835975505</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.08571963540959401</v>
+      </c>
+      <c r="H64">
+        <v>0.03492501182948295</v>
+      </c>
+      <c r="I64">
+        <v>0.07802594940453375</v>
+      </c>
+      <c r="J64">
+        <v>-0.02222788135382405</v>
+      </c>
+      <c r="K64">
+        <v>-0.05517595253598523</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1215102456015315</v>
+        <v>0.1181845852149064</v>
       </c>
       <c r="C65">
-        <v>-0.02868224259403285</v>
+        <v>0.02804448358746336</v>
       </c>
       <c r="D65">
-        <v>-0.02678125865815447</v>
+        <v>-0.004179209394413777</v>
       </c>
       <c r="E65">
-        <v>0.05520807999450762</v>
+        <v>0.002328841852545956</v>
       </c>
       <c r="F65">
-        <v>0.1853148367341359</v>
+        <v>0.03775370764709217</v>
       </c>
       <c r="G65">
-        <v>0.1532379098855891</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0366572589479176</v>
+      </c>
+      <c r="H65">
+        <v>0.0422480849242037</v>
+      </c>
+      <c r="I65">
+        <v>0.278522681335248</v>
+      </c>
+      <c r="J65">
+        <v>0.4875242718472965</v>
+      </c>
+      <c r="K65">
+        <v>-0.2875401141344772</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1584181676366368</v>
+        <v>0.1402007004751995</v>
       </c>
       <c r="C66">
-        <v>-0.05597663789156973</v>
+        <v>0.1041498658095131</v>
       </c>
       <c r="D66">
-        <v>0.01877407117281437</v>
+        <v>0.06125702961360975</v>
       </c>
       <c r="E66">
-        <v>0.01963089061036903</v>
+        <v>0.1115889918991868</v>
       </c>
       <c r="F66">
-        <v>-0.03623477648125126</v>
+        <v>-0.04569488815278007</v>
       </c>
       <c r="G66">
-        <v>-0.2927569906437326</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.15040490645787</v>
+      </c>
+      <c r="H66">
+        <v>0.003962548170437127</v>
+      </c>
+      <c r="I66">
+        <v>-0.02758803126891773</v>
+      </c>
+      <c r="J66">
+        <v>-0.2228724830494353</v>
+      </c>
+      <c r="K66">
+        <v>-0.09302802053021635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1011788015414837</v>
+        <v>0.06806656216836524</v>
       </c>
       <c r="C67">
-        <v>-0.04177496639289955</v>
+        <v>0.03720593517189604</v>
       </c>
       <c r="D67">
-        <v>-0.01774156764280604</v>
+        <v>0.06466957496588595</v>
       </c>
       <c r="E67">
-        <v>-0.01276577507316961</v>
+        <v>-0.01198472074023804</v>
       </c>
       <c r="F67">
-        <v>-0.0008353239868149724</v>
+        <v>-0.04984440933013509</v>
       </c>
       <c r="G67">
-        <v>-0.04878073432200349</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.05009750420476713</v>
+      </c>
+      <c r="H67">
+        <v>-0.01693399912229927</v>
+      </c>
+      <c r="I67">
+        <v>-0.02159402278628313</v>
+      </c>
+      <c r="J67">
+        <v>-0.0152930285917942</v>
+      </c>
+      <c r="K67">
+        <v>-0.03408062039662436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04454532682829266</v>
+        <v>0.1013475327451729</v>
       </c>
       <c r="C68">
-        <v>0.2932339494028996</v>
+        <v>-0.2791266267328752</v>
       </c>
       <c r="D68">
-        <v>-0.03677002613957381</v>
+        <v>0.003785729187799708</v>
       </c>
       <c r="E68">
-        <v>-0.008910949678047094</v>
+        <v>0.0117640616765122</v>
       </c>
       <c r="F68">
-        <v>0.01315535447243393</v>
+        <v>0.01198188336417701</v>
       </c>
       <c r="G68">
-        <v>0.02120182962467465</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03149392877418538</v>
+      </c>
+      <c r="H68">
+        <v>0.02539298296776058</v>
+      </c>
+      <c r="I68">
+        <v>-0.0005434881924775531</v>
+      </c>
+      <c r="J68">
+        <v>0.01677752787272703</v>
+      </c>
+      <c r="K68">
+        <v>-0.01429662192223728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04656282946916568</v>
+        <v>0.03750771178438506</v>
       </c>
       <c r="C69">
-        <v>-0.01634820727743357</v>
+        <v>-0.0009424144791370074</v>
       </c>
       <c r="D69">
-        <v>-0.009131347704570494</v>
+        <v>0.02469617067246123</v>
       </c>
       <c r="E69">
-        <v>0.0004714504169241065</v>
+        <v>-0.003694894987945414</v>
       </c>
       <c r="F69">
-        <v>-0.01969572629726681</v>
+        <v>-0.02546279895845145</v>
       </c>
       <c r="G69">
-        <v>-0.02774174074570858</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01320678532106116</v>
+      </c>
+      <c r="H69">
+        <v>-0.01659683538715804</v>
+      </c>
+      <c r="I69">
+        <v>-0.002150850515935061</v>
+      </c>
+      <c r="J69">
+        <v>0.02763352827222405</v>
+      </c>
+      <c r="K69">
+        <v>-0.01199382653767194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07536214500813879</v>
+        <v>0.04626458057604855</v>
       </c>
       <c r="C70">
-        <v>-0.007616642453132856</v>
+        <v>0.01030815655569399</v>
       </c>
       <c r="D70">
-        <v>-0.03982081894596654</v>
+        <v>0.0167953431044809</v>
       </c>
       <c r="E70">
-        <v>-0.03380644998764853</v>
+        <v>0.02443192426997827</v>
       </c>
       <c r="F70">
-        <v>0.08456930289136588</v>
+        <v>-0.04750075493411308</v>
       </c>
       <c r="G70">
-        <v>-0.007165805856612819</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.03184672717376981</v>
+      </c>
+      <c r="H70">
+        <v>0.02170640558354199</v>
+      </c>
+      <c r="I70">
+        <v>0.08964438883071661</v>
+      </c>
+      <c r="J70">
+        <v>0.1175388685356649</v>
+      </c>
+      <c r="K70">
+        <v>0.1623255424996889</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.05241474071525305</v>
+        <v>0.1161259038012085</v>
       </c>
       <c r="C71">
-        <v>0.2961448159770511</v>
+        <v>-0.2924252209661388</v>
       </c>
       <c r="D71">
-        <v>-0.05559207587392329</v>
+        <v>-0.009034944874620872</v>
       </c>
       <c r="E71">
-        <v>-0.01309020586917657</v>
+        <v>-0.0003843621375904565</v>
       </c>
       <c r="F71">
-        <v>0.01720844156282203</v>
+        <v>-0.01104421307119694</v>
       </c>
       <c r="G71">
-        <v>-0.01214580857039116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.04782440973811413</v>
+      </c>
+      <c r="H71">
+        <v>0.009679774800744976</v>
+      </c>
+      <c r="I71">
+        <v>-0.001567932866932392</v>
+      </c>
+      <c r="J71">
+        <v>-0.0129031020050719</v>
+      </c>
+      <c r="K71">
+        <v>-0.03914005604350236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1498424909138464</v>
+        <v>0.1470462551423942</v>
       </c>
       <c r="C72">
-        <v>0.04390633618877076</v>
+        <v>0.01208230555967638</v>
       </c>
       <c r="D72">
-        <v>0.2344094587915587</v>
+        <v>0.03873524160801017</v>
       </c>
       <c r="E72">
-        <v>-0.0256028954695453</v>
+        <v>0.02031461491337646</v>
       </c>
       <c r="F72">
-        <v>-0.03288364042769033</v>
+        <v>0.09187195492210286</v>
       </c>
       <c r="G72">
-        <v>-0.06664456305502085</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.006270456343954984</v>
+      </c>
+      <c r="H72">
+        <v>-0.03433587073325718</v>
+      </c>
+      <c r="I72">
+        <v>-0.02623129378489039</v>
+      </c>
+      <c r="J72">
+        <v>0.09819538803672834</v>
+      </c>
+      <c r="K72">
+        <v>-0.1302953226111235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2875880376739551</v>
+        <v>0.2369097926855183</v>
       </c>
       <c r="C73">
-        <v>-0.1570845922189176</v>
+        <v>0.1169236545464727</v>
       </c>
       <c r="D73">
-        <v>-0.04675996283242034</v>
+        <v>-0.02267912097586292</v>
       </c>
       <c r="E73">
-        <v>-0.1703707606930675</v>
+        <v>0.07753018077806112</v>
       </c>
       <c r="F73">
-        <v>0.2888065425823874</v>
+        <v>-0.1598515568059488</v>
       </c>
       <c r="G73">
-        <v>0.2767394049539049</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.373452790592946</v>
+      </c>
+      <c r="H73">
+        <v>-0.1850943420973095</v>
+      </c>
+      <c r="I73">
+        <v>0.3187277752552491</v>
+      </c>
+      <c r="J73">
+        <v>-0.2952150711732894</v>
+      </c>
+      <c r="K73">
+        <v>-0.1289133614472202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09954635260224078</v>
+        <v>0.1141262636698756</v>
       </c>
       <c r="C74">
-        <v>-0.03890782523717978</v>
+        <v>0.06117177315024739</v>
       </c>
       <c r="D74">
-        <v>0.004018433937904258</v>
+        <v>0.03420610108350061</v>
       </c>
       <c r="E74">
-        <v>-0.01192023299695205</v>
+        <v>0.01273152019441214</v>
       </c>
       <c r="F74">
-        <v>-0.1006476789579125</v>
+        <v>-0.02451174762954952</v>
       </c>
       <c r="G74">
-        <v>0.03608977383105981</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0189321846192007</v>
+      </c>
+      <c r="H74">
+        <v>-0.1349541991792557</v>
+      </c>
+      <c r="I74">
+        <v>-0.100828382635694</v>
+      </c>
+      <c r="J74">
+        <v>0.03905593024070891</v>
+      </c>
+      <c r="K74">
+        <v>-0.01796892777365064</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09485164500750509</v>
+        <v>0.107059527575021</v>
       </c>
       <c r="C75">
-        <v>-0.01408892036981219</v>
+        <v>0.04567277307339374</v>
       </c>
       <c r="D75">
-        <v>0.02128878429214657</v>
+        <v>0.006924274439918726</v>
       </c>
       <c r="E75">
-        <v>-0.03402764908925585</v>
+        <v>0.01091820426425395</v>
       </c>
       <c r="F75">
-        <v>-0.1204344103884512</v>
+        <v>-0.000925538798866755</v>
       </c>
       <c r="G75">
-        <v>0.07028686298105175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.01759287299073056</v>
+      </c>
+      <c r="H75">
+        <v>-0.06966417357503395</v>
+      </c>
+      <c r="I75">
+        <v>-0.1353837984130465</v>
+      </c>
+      <c r="J75">
+        <v>0.04827082726731448</v>
+      </c>
+      <c r="K75">
+        <v>0.007627204461334555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1386515082353578</v>
+        <v>0.06014234705181313</v>
       </c>
       <c r="C76">
-        <v>-0.02859939495054132</v>
+        <v>0.02829479092446941</v>
       </c>
       <c r="D76">
-        <v>-0.01792698093322422</v>
+        <v>0.02912391515352522</v>
       </c>
       <c r="E76">
-        <v>0.02165512411778695</v>
+        <v>-0.007020754693269239</v>
       </c>
       <c r="F76">
-        <v>-0.2277947780763677</v>
+        <v>-0.04467391442056118</v>
       </c>
       <c r="G76">
-        <v>0.1117284253595679</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05572371117034144</v>
+      </c>
+      <c r="H76">
+        <v>-0.06612969939654069</v>
+      </c>
+      <c r="I76">
+        <v>-0.1313120988286181</v>
+      </c>
+      <c r="J76">
+        <v>0.03957036307448659</v>
+      </c>
+      <c r="K76">
+        <v>-0.005844757967475578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08856198165698598</v>
+        <v>0.07303447791620181</v>
       </c>
       <c r="C77">
-        <v>0.007313778323894953</v>
+        <v>0.0319383919318711</v>
       </c>
       <c r="D77">
-        <v>-0.04102879577464764</v>
+        <v>-0.02083779641205787</v>
       </c>
       <c r="E77">
-        <v>0.05468557855492579</v>
+        <v>-0.01631511351163655</v>
       </c>
       <c r="F77">
-        <v>0.161513392398087</v>
+        <v>-0.03898978263682743</v>
       </c>
       <c r="G77">
-        <v>-0.1802811898861639</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1417954725444464</v>
+      </c>
+      <c r="H77">
+        <v>0.2137275516255918</v>
+      </c>
+      <c r="I77">
+        <v>0.1245070938577173</v>
+      </c>
+      <c r="J77">
+        <v>0.09748298974594725</v>
+      </c>
+      <c r="K77">
+        <v>-0.1488963742996178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2111797670672078</v>
+        <v>0.1477097772677425</v>
       </c>
       <c r="C78">
-        <v>-0.07392173028746261</v>
+        <v>0.1198515337014935</v>
       </c>
       <c r="D78">
-        <v>-0.07054854247157633</v>
+        <v>0.09295702087717161</v>
       </c>
       <c r="E78">
-        <v>0.1809147440361956</v>
+        <v>-0.2282979900964039</v>
       </c>
       <c r="F78">
-        <v>-0.001252231731485654</v>
+        <v>-0.01347789177510655</v>
       </c>
       <c r="G78">
-        <v>-0.1380001408970681</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.3981830073863122</v>
+      </c>
+      <c r="H78">
+        <v>0.7289690600402147</v>
+      </c>
+      <c r="I78">
+        <v>-0.3377942911016442</v>
+      </c>
+      <c r="J78">
+        <v>-0.02179435766959645</v>
+      </c>
+      <c r="K78">
+        <v>-0.008975804663737916</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1365862780488639</v>
+        <v>0.1362297497265861</v>
       </c>
       <c r="C79">
-        <v>-0.009147873662456157</v>
+        <v>0.04664008499052003</v>
       </c>
       <c r="D79">
-        <v>0.0005037441306607094</v>
+        <v>-0.009025606169046329</v>
       </c>
       <c r="E79">
-        <v>-0.0163287065922474</v>
+        <v>0.01261370904360111</v>
       </c>
       <c r="F79">
-        <v>-0.1665189875172572</v>
+        <v>-0.007678894471116006</v>
       </c>
       <c r="G79">
-        <v>0.001323982327973472</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.01678311445457845</v>
+      </c>
+      <c r="H79">
+        <v>-0.09466718503258109</v>
+      </c>
+      <c r="I79">
+        <v>-0.1435973550891171</v>
+      </c>
+      <c r="J79">
+        <v>0.07710833752153029</v>
+      </c>
+      <c r="K79">
+        <v>-0.04746733157421693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03467594156158062</v>
+        <v>0.06177951835705532</v>
       </c>
       <c r="C80">
-        <v>-0.01008295803076546</v>
+        <v>0.04034802959414246</v>
       </c>
       <c r="D80">
-        <v>-0.01707541383204421</v>
+        <v>0.03135556677614186</v>
       </c>
       <c r="E80">
-        <v>-0.02852367135133785</v>
+        <v>0.04696654481478034</v>
       </c>
       <c r="F80">
-        <v>0.01995185174218754</v>
+        <v>-0.05719401781356804</v>
       </c>
       <c r="G80">
-        <v>-0.07461016928147979</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04039162452793548</v>
+      </c>
+      <c r="H80">
+        <v>0.04049862750749115</v>
+      </c>
+      <c r="I80">
+        <v>-0.002060361228702914</v>
+      </c>
+      <c r="J80">
+        <v>-0.005619059410355262</v>
+      </c>
+      <c r="K80">
+        <v>0.1032269138294053</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1096156904116678</v>
+        <v>0.1314492199599228</v>
       </c>
       <c r="C81">
-        <v>-0.0114827775692742</v>
+        <v>0.05321809055427851</v>
       </c>
       <c r="D81">
-        <v>-0.009960999289207304</v>
+        <v>0.004237210373870108</v>
       </c>
       <c r="E81">
-        <v>-0.0168268758520981</v>
+        <v>0.008770132202725328</v>
       </c>
       <c r="F81">
-        <v>-0.1429261465883701</v>
+        <v>-0.02415220267829353</v>
       </c>
       <c r="G81">
-        <v>0.04480416883047899</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.04009450986813129</v>
+      </c>
+      <c r="H81">
+        <v>-0.07563506635267432</v>
+      </c>
+      <c r="I81">
+        <v>-0.130380914706309</v>
+      </c>
+      <c r="J81">
+        <v>0.03179204248450798</v>
+      </c>
+      <c r="K81">
+        <v>0.009928234727249102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1115506944155753</v>
+        <v>0.1428071787850795</v>
       </c>
       <c r="C82">
-        <v>-0.02343052310054669</v>
+        <v>0.04634649897958838</v>
       </c>
       <c r="D82">
-        <v>-0.0525274245099949</v>
+        <v>-0.003852506587518982</v>
       </c>
       <c r="E82">
-        <v>-0.05664070845374493</v>
+        <v>0.04440235704724353</v>
       </c>
       <c r="F82">
-        <v>-0.2292355831965919</v>
+        <v>-0.04676996217192835</v>
       </c>
       <c r="G82">
-        <v>0.008630288309067001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.01854526886206588</v>
+      </c>
+      <c r="H82">
+        <v>-0.1707552514198842</v>
+      </c>
+      <c r="I82">
+        <v>-0.2569060160269541</v>
+      </c>
+      <c r="J82">
+        <v>0.01801404514110256</v>
+      </c>
+      <c r="K82">
+        <v>0.06081878464907293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.1022979181585057</v>
+        <v>0.08971768518150894</v>
       </c>
       <c r="C83">
-        <v>-0.0576548451360164</v>
+        <v>0.1061788891305474</v>
       </c>
       <c r="D83">
-        <v>-0.05765692503967983</v>
+        <v>0.008502344527223669</v>
       </c>
       <c r="E83">
-        <v>-0.02776816835009254</v>
+        <v>-0.007380723395085473</v>
       </c>
       <c r="F83">
-        <v>0.07762157868247893</v>
+        <v>-0.02609819300805483</v>
       </c>
       <c r="G83">
-        <v>-0.06643632792256032</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.03942767670496379</v>
+      </c>
+      <c r="H83">
+        <v>0.04934356732666805</v>
+      </c>
+      <c r="I83">
+        <v>0.03313436709198707</v>
+      </c>
+      <c r="J83">
+        <v>0.1195895027082099</v>
+      </c>
+      <c r="K83">
+        <v>0.08715137490331745</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05416404683829711</v>
+        <v>0.05499425600160363</v>
       </c>
       <c r="C84">
-        <v>-0.024131997092735</v>
+        <v>-0.02849176553462678</v>
       </c>
       <c r="D84">
-        <v>0.04442800311980933</v>
+        <v>-0.03831141420474502</v>
       </c>
       <c r="E84">
-        <v>0.03825596003926671</v>
+        <v>0.01647321926040709</v>
       </c>
       <c r="F84">
-        <v>-0.0265136520782463</v>
+        <v>0.01715780624905618</v>
       </c>
       <c r="G84">
-        <v>0.02699528589478555</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.06078925728316853</v>
+      </c>
+      <c r="H84">
+        <v>0.1040830626967149</v>
+      </c>
+      <c r="I84">
+        <v>0.007452317655431646</v>
+      </c>
+      <c r="J84">
+        <v>-0.3400414499673238</v>
+      </c>
+      <c r="K84">
+        <v>0.1520602110571638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1013381843882272</v>
+        <v>0.119202879034984</v>
       </c>
       <c r="C85">
-        <v>-0.01951153388823692</v>
+        <v>0.04104699697416525</v>
       </c>
       <c r="D85">
-        <v>-0.02481948098335321</v>
+        <v>-0.01018640941954529</v>
       </c>
       <c r="E85">
-        <v>-0.01946221807868272</v>
+        <v>0.01251416473432072</v>
       </c>
       <c r="F85">
-        <v>-0.1990293770038561</v>
+        <v>-0.04453212243936279</v>
       </c>
       <c r="G85">
-        <v>0.01529058019994042</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02167435310137792</v>
+      </c>
+      <c r="H85">
+        <v>-0.09764094741834442</v>
+      </c>
+      <c r="I85">
+        <v>-0.164815599930263</v>
+      </c>
+      <c r="J85">
+        <v>0.06186631952141863</v>
+      </c>
+      <c r="K85">
+        <v>-0.04567912458402537</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.0673710412438554</v>
+        <v>0.1398030705438774</v>
       </c>
       <c r="C86">
-        <v>-0.02477173325565273</v>
+        <v>0.1013466039298981</v>
       </c>
       <c r="D86">
-        <v>-0.05178655074677609</v>
+        <v>-0.8492031301540063</v>
       </c>
       <c r="E86">
-        <v>0.05410140083964163</v>
+        <v>-0.07916932415581758</v>
       </c>
       <c r="F86">
-        <v>0.02614162177793862</v>
+        <v>0.4049265470161033</v>
       </c>
       <c r="G86">
-        <v>-0.1442689471821024</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.1052652607592887</v>
+      </c>
+      <c r="H86">
+        <v>0.05194153931117315</v>
+      </c>
+      <c r="I86">
+        <v>-0.06346437828516671</v>
+      </c>
+      <c r="J86">
+        <v>-0.05746785643748033</v>
+      </c>
+      <c r="K86">
+        <v>0.03586498297691244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1032468035989774</v>
+        <v>0.1097705124961943</v>
       </c>
       <c r="C87">
-        <v>-0.05774905763148647</v>
+        <v>0.09136836006468328</v>
       </c>
       <c r="D87">
-        <v>-0.02318015712574956</v>
+        <v>0.004664707228226228</v>
       </c>
       <c r="E87">
-        <v>0.0566029592986222</v>
+        <v>-0.0259100906330599</v>
       </c>
       <c r="F87">
-        <v>0.01786239725555286</v>
+        <v>-0.03423819519675185</v>
       </c>
       <c r="G87">
-        <v>-0.1241400281939914</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.1097793493466451</v>
+      </c>
+      <c r="H87">
+        <v>0.08404686897508699</v>
+      </c>
+      <c r="I87">
+        <v>0.1365119055483422</v>
+      </c>
+      <c r="J87">
+        <v>0.1046391331084236</v>
+      </c>
+      <c r="K87">
+        <v>0.04374696874613813</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06890363887054948</v>
+        <v>0.05823621372696542</v>
       </c>
       <c r="C88">
-        <v>-0.03592901207844437</v>
+        <v>0.04637671046789196</v>
       </c>
       <c r="D88">
-        <v>-0.02436187588723486</v>
+        <v>0.01493882673729646</v>
       </c>
       <c r="E88">
-        <v>0.01052469110130945</v>
+        <v>0.04646104679193616</v>
       </c>
       <c r="F88">
-        <v>-0.0005567267613811864</v>
+        <v>-0.03891121039763461</v>
       </c>
       <c r="G88">
-        <v>-0.06150662969102225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03151023113101228</v>
+      </c>
+      <c r="H88">
+        <v>-0.008714677887759327</v>
+      </c>
+      <c r="I88">
+        <v>0.01269877883080879</v>
+      </c>
+      <c r="J88">
+        <v>-0.02267960900899181</v>
+      </c>
+      <c r="K88">
+        <v>-0.0122723392852741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09938256851656924</v>
+        <v>0.1696619932047843</v>
       </c>
       <c r="C89">
-        <v>0.3666299375457667</v>
+        <v>-0.3729767067264101</v>
       </c>
       <c r="D89">
-        <v>-0.1089233006071555</v>
+        <v>-0.02041097106282994</v>
       </c>
       <c r="E89">
-        <v>0.01234084370676425</v>
+        <v>-0.0620392258751111</v>
       </c>
       <c r="F89">
-        <v>0.06520069310859003</v>
+        <v>-0.03600377481905769</v>
       </c>
       <c r="G89">
-        <v>-0.00606748557807772</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.004102549913642652</v>
+      </c>
+      <c r="H89">
+        <v>0.03413534939289806</v>
+      </c>
+      <c r="I89">
+        <v>0.02945176382202621</v>
+      </c>
+      <c r="J89">
+        <v>-0.01566370779348443</v>
+      </c>
+      <c r="K89">
+        <v>0.07752337310392807</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07933044031177522</v>
+        <v>0.1332696317994486</v>
       </c>
       <c r="C90">
-        <v>0.2966099882858206</v>
+        <v>-0.278312079432847</v>
       </c>
       <c r="D90">
-        <v>-0.05116209352575769</v>
+        <v>-0.01246196380737408</v>
       </c>
       <c r="E90">
-        <v>0.04119890305538092</v>
+        <v>0.0005166842297209125</v>
       </c>
       <c r="F90">
-        <v>0.05782291868625457</v>
+        <v>-0.01536697377735064</v>
       </c>
       <c r="G90">
-        <v>-0.04481124768137412</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04020528718662052</v>
+      </c>
+      <c r="H90">
+        <v>0.02256816226934966</v>
+      </c>
+      <c r="I90">
+        <v>0.04717960130490383</v>
+      </c>
+      <c r="J90">
+        <v>-0.04950066921083205</v>
+      </c>
+      <c r="K90">
+        <v>-0.03740094809154291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.08593690776184777</v>
+        <v>0.08262285375490322</v>
       </c>
       <c r="C91">
-        <v>-0.02156684840946226</v>
+        <v>0.03793528221451532</v>
       </c>
       <c r="D91">
-        <v>-0.000974323445062594</v>
+        <v>-0.01875648723277283</v>
       </c>
       <c r="E91">
-        <v>-0.01651194667469487</v>
+        <v>0.002846182715069943</v>
       </c>
       <c r="F91">
-        <v>-0.08639318986294947</v>
+        <v>-0.01564991648799704</v>
       </c>
       <c r="G91">
-        <v>0.07309137390942867</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.005388793261327861</v>
+      </c>
+      <c r="H91">
+        <v>-0.07549031056460065</v>
+      </c>
+      <c r="I91">
+        <v>-0.1068091178289166</v>
+      </c>
+      <c r="J91">
+        <v>0.04392952061453283</v>
+      </c>
+      <c r="K91">
+        <v>0.005345449102728472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.07428497948375973</v>
+        <v>0.1442380922456861</v>
       </c>
       <c r="C92">
-        <v>0.3416918225835177</v>
+        <v>-0.3316239848500167</v>
       </c>
       <c r="D92">
-        <v>-0.07091506440214615</v>
+        <v>-0.002313879983426025</v>
       </c>
       <c r="E92">
-        <v>0.0203422282666203</v>
+        <v>-0.04552263477559268</v>
       </c>
       <c r="F92">
-        <v>0.04094282455030292</v>
+        <v>-0.01776218500102779</v>
       </c>
       <c r="G92">
-        <v>0.02827826250800826</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03616600808530285</v>
+      </c>
+      <c r="H92">
+        <v>0.04673439111929256</v>
+      </c>
+      <c r="I92">
+        <v>-0.03426691881876566</v>
+      </c>
+      <c r="J92">
+        <v>-0.01917770235494971</v>
+      </c>
+      <c r="K92">
+        <v>0.00819491640974643</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.09103522998091597</v>
+        <v>0.1382381785901447</v>
       </c>
       <c r="C93">
-        <v>0.2950656443762141</v>
+        <v>-0.3100645189480288</v>
       </c>
       <c r="D93">
-        <v>-0.05410876528094742</v>
+        <v>-0.03911586139228646</v>
       </c>
       <c r="E93">
-        <v>0.004470376547807947</v>
+        <v>0.02213239003634523</v>
       </c>
       <c r="F93">
-        <v>0.02220612355160177</v>
+        <v>-0.01361573407439633</v>
       </c>
       <c r="G93">
-        <v>0.005114660528067025</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0272039044191427</v>
+      </c>
+      <c r="H93">
+        <v>-0.002602570148667536</v>
+      </c>
+      <c r="I93">
+        <v>0.02661512220880067</v>
+      </c>
+      <c r="J93">
+        <v>-0.007734048950170319</v>
+      </c>
+      <c r="K93">
+        <v>-0.0005867360201595355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09535677653506888</v>
+        <v>0.1216658105939095</v>
       </c>
       <c r="C94">
-        <v>-0.04062325362956695</v>
+        <v>0.04956422843755398</v>
       </c>
       <c r="D94">
-        <v>0.008263443768712275</v>
+        <v>0.02571754135103125</v>
       </c>
       <c r="E94">
-        <v>-0.001577766776588146</v>
+        <v>-0.006822772224627335</v>
       </c>
       <c r="F94">
-        <v>-0.1344618855732929</v>
+        <v>-0.02620977288781992</v>
       </c>
       <c r="G94">
-        <v>0.0695045396243572</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.02020594696706232</v>
+      </c>
+      <c r="H94">
+        <v>-0.1013771738291193</v>
+      </c>
+      <c r="I94">
+        <v>-0.1256707937478672</v>
+      </c>
+      <c r="J94">
+        <v>0.008311259246815127</v>
+      </c>
+      <c r="K94">
+        <v>-0.01651955837500779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1364015076526629</v>
+        <v>0.1196620911167052</v>
       </c>
       <c r="C95">
-        <v>-0.06807467858174532</v>
+        <v>0.07066756254796466</v>
       </c>
       <c r="D95">
-        <v>-0.07054951975956</v>
+        <v>0.01478189404810655</v>
       </c>
       <c r="E95">
-        <v>0.02165932903894856</v>
+        <v>-0.03989547022753168</v>
       </c>
       <c r="F95">
-        <v>0.05653251395562484</v>
+        <v>-0.06601051219282038</v>
       </c>
       <c r="G95">
-        <v>-0.1261473025683085</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04534332522678566</v>
+      </c>
+      <c r="H95">
+        <v>0.1340727805717845</v>
+      </c>
+      <c r="I95">
+        <v>0.2052233326760673</v>
+      </c>
+      <c r="J95">
+        <v>-0.05231531590081491</v>
+      </c>
+      <c r="K95">
+        <v>0.1131931372448681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.006512980443096065</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.001834994979016718</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.004862671293029374</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.003240359352489614</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.000291113053282048</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.005194662708827494</v>
+      </c>
+      <c r="H96">
+        <v>0.023331517679606</v>
+      </c>
+      <c r="I96">
+        <v>0.007130705863062468</v>
+      </c>
+      <c r="J96">
+        <v>0.01198993196732678</v>
+      </c>
+      <c r="K96">
+        <v>-0.01930679561322438</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2079573684210875</v>
+        <v>0.1896914399952659</v>
       </c>
       <c r="C97">
-        <v>0.1428928075062932</v>
+        <v>0.02192253559397415</v>
       </c>
       <c r="D97">
-        <v>0.9002700939228606</v>
+        <v>0.4259457929720886</v>
       </c>
       <c r="E97">
-        <v>0.03721269117282675</v>
+        <v>0.1015303739279096</v>
       </c>
       <c r="F97">
-        <v>0.06505251675584099</v>
+        <v>0.8450973172242257</v>
       </c>
       <c r="G97">
-        <v>-0.03536381127890136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03034490490079755</v>
+      </c>
+      <c r="H97">
+        <v>-0.03343404983849476</v>
+      </c>
+      <c r="I97">
+        <v>0.05134432819310069</v>
+      </c>
+      <c r="J97">
+        <v>-0.05931012138170581</v>
+      </c>
+      <c r="K97">
+        <v>0.02419124624108917</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.308318207016421</v>
+        <v>0.2662253723969116</v>
       </c>
       <c r="C98">
-        <v>-0.0871501570559548</v>
+        <v>0.09326315062689201</v>
       </c>
       <c r="D98">
-        <v>-0.05960977375229261</v>
+        <v>-0.03565674811113712</v>
       </c>
       <c r="E98">
-        <v>-0.2517673890410436</v>
+        <v>-0.01433598268677057</v>
       </c>
       <c r="F98">
-        <v>0.2175880963741432</v>
+        <v>-0.03908891015906624</v>
       </c>
       <c r="G98">
-        <v>0.2549646776700726</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3325540486380625</v>
+      </c>
+      <c r="H98">
+        <v>-0.1138915971091347</v>
+      </c>
+      <c r="I98">
+        <v>0.1651898078995856</v>
+      </c>
+      <c r="J98">
+        <v>0.1647027807177595</v>
+      </c>
+      <c r="K98">
+        <v>0.6332077378180055</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08562345368537633</v>
+        <v>0.05828348569061245</v>
       </c>
       <c r="C99">
-        <v>-0.03357793132303988</v>
+        <v>0.02275413364774849</v>
       </c>
       <c r="D99">
-        <v>-0.007567210523359436</v>
+        <v>0.03735892752447105</v>
       </c>
       <c r="E99">
-        <v>-0.009997790666269522</v>
+        <v>-0.01375489488603581</v>
       </c>
       <c r="F99">
-        <v>-0.01898121064120223</v>
+        <v>-0.03808213102244803</v>
       </c>
       <c r="G99">
-        <v>-0.01029412824720214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.008452225858246277</v>
+      </c>
+      <c r="H99">
+        <v>0.0001838338501558665</v>
+      </c>
+      <c r="I99">
+        <v>-0.01672535997028273</v>
+      </c>
+      <c r="J99">
+        <v>-0.02811324283697993</v>
+      </c>
+      <c r="K99">
+        <v>-0.04813926360466966</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.01690320128214578</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.01579339170454731</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.09675017331347814</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.04861399938747007</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.01031178144803837</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.04209542449774973</v>
+      </c>
+      <c r="H100">
+        <v>-0.032260632556671</v>
+      </c>
+      <c r="I100">
+        <v>-0.03987771889828282</v>
+      </c>
+      <c r="J100">
+        <v>0.01512073294634199</v>
+      </c>
+      <c r="K100">
+        <v>0.2654223291997017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05730314246211285</v>
+        <v>0.0412477217699881</v>
       </c>
       <c r="C101">
-        <v>-0.008041837561596902</v>
+        <v>0.01997710179320733</v>
       </c>
       <c r="D101">
-        <v>-0.02919698222880906</v>
+        <v>0.01212798093711071</v>
       </c>
       <c r="E101">
-        <v>0.04224553379845227</v>
+        <v>0.008189181617293515</v>
       </c>
       <c r="F101">
-        <v>-0.03463645123111508</v>
+        <v>-0.03626818648522127</v>
       </c>
       <c r="G101">
-        <v>-0.0484927309507447</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.100373989227204</v>
+      </c>
+      <c r="H101">
+        <v>-0.006312721654855148</v>
+      </c>
+      <c r="I101">
+        <v>0.003103072355986767</v>
+      </c>
+      <c r="J101">
+        <v>0.03853566680260075</v>
+      </c>
+      <c r="K101">
+        <v>0.0494030396200401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
